--- a/AccessibleDashboardData/2022-01-26.xlsx
+++ b/AccessibleDashboardData/2022-01-26.xlsx
@@ -11860,7 +11860,7 @@
         <v>1910</v>
       </c>
       <c r="B8">
-        <v>1958</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11908,7 +11908,7 @@
         <v>1916</v>
       </c>
       <c r="B14">
-        <v>5349</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11916,7 +11916,7 @@
         <v>1917</v>
       </c>
       <c r="B15">
-        <v>7039</v>
+        <v>7697</v>
       </c>
     </row>
   </sheetData>
